--- a/ans/result/1901CB69.xlsx
+++ b/ans/result/1901CB69.xlsx
@@ -534,7 +534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A5:E40"/>
+  <dimension ref="A5:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,7 +617,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>No.</t>
         </is>
@@ -629,14 +629,14 @@
         <v>0</v>
       </c>
       <c r="D10" s="7" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="E10" s="7" t="n">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>Marking</t>
         </is>
@@ -646,7 +646,7 @@
       </c>
       <c r="C11" s="6" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="D11" s="7" t="n">
@@ -655,7 +655,7 @@
       <c r="E11" s="4" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -690,6 +690,16 @@
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>Correct Ans</t>
+        </is>
+      </c>
+      <c r="G15" s="4" t="inlineStr">
+        <is>
+          <t>Student Ans</t>
+        </is>
+      </c>
+      <c r="H15" s="4" t="inlineStr">
         <is>
           <t>Correct Ans</t>
         </is>
@@ -708,6 +718,12 @@
           <t>Option A</t>
         </is>
       </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr">
+        <is>
+          <t>Option A</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="inlineStr"/>
@@ -722,6 +738,12 @@
           <t>Option C</t>
         </is>
       </c>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>Option D</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="inlineStr"/>
@@ -736,6 +758,12 @@
           <t>Option D</t>
         </is>
       </c>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Option D</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="inlineStr"/>
@@ -744,6 +772,18 @@
           <t>Option C</t>
         </is>
       </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>Option A</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>Option A</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="inlineStr"/>
@@ -752,6 +792,18 @@
           <t>Option B</t>
         </is>
       </c>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>Option D</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr">
+        <is>
+          <t>Option C</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr"/>
@@ -760,6 +812,18 @@
           <t>Option C</t>
         </is>
       </c>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>Option B</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr">
+        <is>
+          <t>Option D</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr"/>
@@ -768,6 +832,12 @@
           <t>Option D</t>
         </is>
       </c>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>Option C</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr"/>
@@ -776,6 +846,12 @@
           <t>Option D</t>
         </is>
       </c>
+      <c r="D23" s="7" t="inlineStr"/>
+      <c r="E23" s="8" t="inlineStr">
+        <is>
+          <t>Option B</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr"/>
@@ -784,6 +860,12 @@
           <t>Option A</t>
         </is>
       </c>
+      <c r="D24" s="7" t="inlineStr"/>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>Option C</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr"/>
@@ -792,6 +874,12 @@
           <t>Option A</t>
         </is>
       </c>
+      <c r="D25" s="7" t="inlineStr"/>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>Option D</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr"/>
@@ -800,6 +888,12 @@
           <t>Option C</t>
         </is>
       </c>
+      <c r="D26" s="7" t="inlineStr"/>
+      <c r="E26" s="8" t="inlineStr">
+        <is>
+          <t>Option D</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr"/>
@@ -808,6 +902,12 @@
           <t>Option A</t>
         </is>
       </c>
+      <c r="D27" s="7" t="inlineStr"/>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>Option A</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr"/>
@@ -816,6 +916,12 @@
           <t>Option D</t>
         </is>
       </c>
+      <c r="D28" s="7" t="inlineStr"/>
+      <c r="E28" s="8" t="inlineStr">
+        <is>
+          <t>Option A</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr"/>
@@ -824,6 +930,12 @@
           <t>Option D</t>
         </is>
       </c>
+      <c r="D29" s="7" t="inlineStr"/>
+      <c r="E29" s="8" t="inlineStr">
+        <is>
+          <t>Option C</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr"/>
@@ -832,6 +944,12 @@
           <t>Option B</t>
         </is>
       </c>
+      <c r="D30" s="7" t="inlineStr"/>
+      <c r="E30" s="8" t="inlineStr">
+        <is>
+          <t>Option A</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr"/>
@@ -840,6 +958,12 @@
           <t>Option D</t>
         </is>
       </c>
+      <c r="D31" s="7" t="inlineStr"/>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>Option D</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="inlineStr"/>
@@ -848,6 +972,12 @@
           <t>Option C</t>
         </is>
       </c>
+      <c r="D32" s="7" t="inlineStr"/>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>Option D</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="7" t="inlineStr"/>
@@ -856,6 +986,12 @@
           <t>Option D</t>
         </is>
       </c>
+      <c r="D33" s="7" t="inlineStr"/>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>Option B</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="7" t="inlineStr"/>
@@ -864,6 +1000,12 @@
           <t>Option B</t>
         </is>
       </c>
+      <c r="D34" s="7" t="inlineStr"/>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>Option D</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="7" t="inlineStr"/>
@@ -872,6 +1014,12 @@
           <t>Option D</t>
         </is>
       </c>
+      <c r="D35" s="7" t="inlineStr"/>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>Option C</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="7" t="inlineStr"/>
@@ -880,6 +1028,12 @@
           <t>Option A</t>
         </is>
       </c>
+      <c r="D36" s="7" t="inlineStr"/>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>Option D</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="7" t="inlineStr"/>
@@ -888,6 +1042,12 @@
           <t>Option A</t>
         </is>
       </c>
+      <c r="D37" s="7" t="inlineStr"/>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>Option B</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="7" t="inlineStr"/>
@@ -896,6 +1056,12 @@
           <t>Option A</t>
         </is>
       </c>
+      <c r="D38" s="7" t="inlineStr"/>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>Option D</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="7" t="inlineStr"/>
@@ -904,12 +1070,24 @@
           <t>Option D</t>
         </is>
       </c>
+      <c r="D39" s="7" t="inlineStr"/>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>Option A</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="7" t="inlineStr"/>
       <c r="B40" s="8" t="inlineStr">
         <is>
           <t>Option D</t>
+        </is>
+      </c>
+      <c r="D40" s="7" t="inlineStr"/>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>Option A</t>
         </is>
       </c>
     </row>
